--- a/资料/实训课程安排.xlsx
+++ b/资料/实训课程安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="1380" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,45 +33,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iOS开发介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objective-C基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UIKit初体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iOS开发介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Objective-C的探索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是iOS开发，为什么选择iOS开发，怎么学好iOS开发，iOS的岗位职责，iOS发展前景，一周实训安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成果展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开发工具Xcode介绍
 如何创建iOS项目
-Foundation框架介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foundation框架介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见GUI控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见GUI控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学时</t>
+Foundation框架介绍（数据结构、基本语法、内存管理）
+常用设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见GUI控件及事件处理
+常用视图控制器（标准视图、表视图、集合视图、标签、导航控制器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单新闻客户端的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是iOS开发，为什么选择iOS开发，怎么学好iOS开发
+iOS的岗位介绍，iOS发展前景，一周实训课程安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一（上午）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一（下午）、二、三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +128,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,13 +181,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -167,6 +226,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,95 +578,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="32" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="87" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="47" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="5">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="55" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:4" ht="56" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="49" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="56" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
+    <row r="6" spans="1:4" ht="53" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
